--- a/BBangSuttleProject/구조도1.xlsx
+++ b/BBangSuttleProject/구조도1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yulmi\Desktop\Yuriming\BBANGSHUTTLE\BBangSuttleProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KYR\BBANG\BBangSuttleProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C052C-DCC4-445E-917A-CEB7D1F83A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="816" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="810" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,6 +74,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBD8961"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -90,15 +94,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -114,7 +118,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="838200"/>
+          <a:off x="1371600" y="628650"/>
           <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -122,8 +126,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="19050">
@@ -168,15 +172,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -192,17 +196,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6454140" y="883920"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="3162300" y="2514600"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
@@ -246,15 +247,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -270,16 +271,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4442460" y="883920"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="6800850" y="5238750"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="19050">
@@ -315,7 +316,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>주문</a:t>
+            <a:t>마이페이지</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -324,15 +325,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -348,16 +349,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="883920"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="3162300" y="628650"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="19050">
@@ -395,22 +396,6 @@
             </a:rPr>
             <a:t>로그인</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>회원가입</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -418,15 +403,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -442,8 +427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="1546860"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="1371600" y="1885950"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,7 +469,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>리스트 페이지</a:t>
+            <a:t>제품리스트 페이지</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -493,15 +478,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -517,8 +502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1546860"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="5000625" y="628650"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -589,95 +574,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="직사각형 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7326806B-A2A3-4976-A235-0B3258FCF1C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="2209800"/>
-          <a:ext cx="1341120" cy="441960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>가입여부확인</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -693,8 +598,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="2872740"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="6800850" y="1257300"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,15 +649,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -768,8 +673,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="3535680"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="6800850" y="1885950"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,90 +724,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="직사각형 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46D4F95-65B6-4269-9280-C5D6BD5C4F60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="4198620"/>
-          <a:ext cx="1341120" cy="441960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>회원가입완료</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -918,8 +748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="4861560"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="6800850" y="2514600"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,15 +799,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -993,8 +823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6454140" y="1546860"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="4991100" y="2514600"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1044,15 +874,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1068,14 +898,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4442460" y="1546860"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="1371600" y="3981450"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
@@ -1124,15 +957,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1148,8 +981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4442460" y="2209800"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="3162300" y="3981450"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1190,7 +1023,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>주문배송지정보</a:t>
+            <a:t>주문</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>배송지정보</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1199,15 +1048,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1223,8 +1072,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4442460" y="2872740"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="3162300" y="4610100"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1274,15 +1123,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1298,14 +1147,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4442460" y="3535680"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="3162300" y="5238750"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
@@ -1349,16 +1201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1373,8 +1225,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4442460" y="4198620"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="13192125" y="3067050"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,16 +1276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1448,8 +1300,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4442460" y="4861560"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="13249275" y="3667125"/>
+          <a:ext cx="1028700" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,16 +1351,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1523,8 +1375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4442460" y="5524500"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="14878050" y="3076575"/>
+          <a:ext cx="1181100" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1575,14 +1427,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1598,8 +1450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="2209800"/>
-          <a:ext cx="1341120" cy="441960"/>
+          <a:off x="1362075" y="3143250"/>
+          <a:ext cx="1371600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,6 +1497,1418 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="1257300"/>
+          <a:ext cx="1371600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>회원가입</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A025CF1-E233-4623-9B9D-E7569D48BCEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="1885950"/>
+          <a:ext cx="1371600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이용안내</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26207ED5-2FB3-4DE9-B5CE-E9A932B211A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="5448300"/>
+          <a:ext cx="1371600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>교환</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>환불</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26207ED5-2FB3-4DE9-B5CE-E9A932B211A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="5238750"/>
+          <a:ext cx="1371600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>주문취소</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="직선 화살표 연결선 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="1047750"/>
+          <a:ext cx="0" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="직선 화살표 연결선 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="2305050"/>
+          <a:ext cx="0" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="직선 화살표 연결선 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="1047750"/>
+          <a:ext cx="0" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="직선 화살표 연결선 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="3562350"/>
+          <a:ext cx="9525" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="직선 화살표 연결선 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="2933700"/>
+          <a:ext cx="0" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="직선 화살표 연결선 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="2305050"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="직선 화살표 연결선 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="4400550"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="직선 화살표 연결선 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="5029200"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="직선 화살표 연결선 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="2724150"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="직선 화살표 연결선 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686425" y="1047750"/>
+          <a:ext cx="1" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="직선 화살표 연결선 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="1466850"/>
+          <a:ext cx="428625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="직선 화살표 연결선 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486649" y="1676400"/>
+          <a:ext cx="1" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="직선 화살표 연결선 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486649" y="2305050"/>
+          <a:ext cx="1" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="직선 화살표 연결선 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2724150" y="5448300"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="꺾인 연결선 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2400300" y="4057650"/>
+          <a:ext cx="419100" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="직선 화살표 연결선 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="2924175"/>
+          <a:ext cx="0" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="직선 화살표 연결선 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="838200"/>
+          <a:ext cx="419100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="직선 화살표 연결선 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="838200"/>
+          <a:ext cx="466725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="꺾인 연결선 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5429250" y="3181350"/>
+          <a:ext cx="2305050" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="구부러진 연결선 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="5448300"/>
+          <a:ext cx="2266950" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 51261"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1912,16 +3176,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="6.125" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
